--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1776355.897101035</v>
+        <v>1861723.847148698</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13283008.53108102</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245491.494744291</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6384592.423057522</v>
+        <v>6859257.633699732</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,7 +676,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>166.1430027658688</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.94721823158767</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>93.49729051610262</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.36345589035416</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>365.2311941968097</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.94721823158767</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>167.1708831934889</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>135.7074041394968</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1145,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>9.530900384140208</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>52.3711637629813</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.9073134702961</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>43.95849812979844</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1528,13 +1530,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>133.7658337647892</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.61444029309516</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>261.760261142399</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>70.59031543478176</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1777,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>49.10882889174314</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>131.4072877414241</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.37033860849166</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,7 +2253,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.8982442656982</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>6.13287386842549</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>219.8698504776409</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>71.65681486460737</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>104.6805223578574</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>79.47996908724016</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>181.3732679599242</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>25.45817320599514</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3481,16 +3483,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>54.28451967352942</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.594400008706</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3721,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>156.8998395935892</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>224.7259944248515</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>102.0412378013739</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>264.6442222336266</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>2.223773326656302</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>228.8667842025691</v>
+        <v>230.3111546801189</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.816201625927</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.915471639227</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D2" t="n">
-        <v>824.622850824227</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E2" t="n">
-        <v>802.6863150124886</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4328,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>455.3583126271592</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2057.090037547357</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2057.090037547357</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="V2" t="n">
-        <v>1699.600622673607</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W2" t="n">
-        <v>1699.600622673607</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X2" t="n">
-        <v>1691.921027881758</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.624161877053</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K3" t="n">
-        <v>866.8612493132769</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="M3" t="n">
-        <v>1417.526784297715</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="N3" t="n">
-        <v>1417.526784297715</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="O3" t="n">
-        <v>1417.526784297715</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.1330418734033</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="C4" t="n">
-        <v>626.1330418734033</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="D4" t="n">
-        <v>626.1330418734033</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="E4" t="n">
-        <v>459.9248360262568</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>965.2704761209314</v>
       </c>
       <c r="Y4" t="n">
-        <v>626.1330418734033</v>
+        <v>738.9277078106735</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185.028631180769</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C5" t="n">
-        <v>1758.12790119407</v>
+        <v>1264.818403260733</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.83528037907</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E5" t="n">
-        <v>908.8583405269275</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>2202.133457436601</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2200.836591431896</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>669.8354755761777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1771.166545545054</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.2416088994861</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>623.2416088994861</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>459.9248360262568</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4753,22 +4755,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1838.878113695463</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.878113695463</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1557.166646303491</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1282.314242476004</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1039.75034592181</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>813.4075776115517</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2165.642643881459</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1738.741913894759</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>1315.44929307976</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>889.4723532276171</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>464.3481714170172</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>60.00910900646583</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>60.00910900646583</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>60.00910900646583</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>802.6218329614803</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1545.234556916495</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>2287.84728087151</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>3000.455450323291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>3000.455450323291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2990.828278218099</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>2585.491008172989</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.1326000379211</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>509.6266965554258</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>405.7867380707108</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>301.084804343648</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>207.4389740265522</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>113.3852022441562</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00910900646583</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>383.4712916769464</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L9" t="n">
-        <v>1126.084015631961</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>1126.084015631961</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>1126.084015631961</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1787.37249214823</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1645.492556445908</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1460.724360365545</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1255.751221504811</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1059.229844338028</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>895.7524981046914</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.0596094579838</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.8566531352171</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C10" t="n">
-        <v>591.8840900141331</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>428.5673171409038</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>375.667151723751</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>203.8053774983114</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>203.8053774983114</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>60.00910900646583</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>117.5004372306238</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>344.028038436461</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>698.7173597308818</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1089.903154701133</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1467.394665577168</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1822.822794256932</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2113.422006178832</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2240.422136419594</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2240.422136419594</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2070.287088938729</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1826.947741164629</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1546.763292664933</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1265.051825272962</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>990.1994214454751</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>990.1994214454751</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="Y10" t="n">
-        <v>763.8566531352171</v>
+        <v>792.3900115791711</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>530.388572222041</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>530.388572222041</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>530.388572222041</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>104.4116323698986</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>60.00910900646583</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>689.3943883734315</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>689.3943883734315</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>689.3943883734315</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>1432.007112328446</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>2174.619836283461</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>2882.899115441388</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>2779.529879367924</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>2521.174969964337</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2163.685555090587</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>1767.294205390933</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1355.574206558681</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>950.2369365135711</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00910900646583</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>60.00910900646583</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>60.00910900646583</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="L12" t="n">
-        <v>802.6218329614803</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="M12" t="n">
-        <v>1545.234556916495</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="N12" t="n">
-        <v>1868.696739586976</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O12" t="n">
-        <v>1868.696739586976</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P12" t="n">
-        <v>1868.696739586976</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q12" t="n">
-        <v>1868.696739586976</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1143.190231530703</v>
+        <v>980.1943022378139</v>
       </c>
       <c r="C13" t="n">
-        <v>971.2176684096187</v>
+        <v>980.1943022378139</v>
       </c>
       <c r="D13" t="n">
-        <v>807.9008955363894</v>
+        <v>816.8775293645846</v>
       </c>
       <c r="E13" t="n">
-        <v>641.6926896892429</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>469.8309154638034</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U13" t="n">
-        <v>1960.237687919898</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.526220527927</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W13" t="n">
-        <v>1403.67381670044</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X13" t="n">
-        <v>1403.67381670044</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="Y13" t="n">
-        <v>1333.356200242768</v>
+        <v>1170.36027094988</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>751.3141431774072</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>324.4134131907073</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>324.4134131907073</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>324.4134131907073</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>324.4134131907073</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>422.6125678233614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1165.225291778376</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M14" t="n">
-        <v>1836.09069166118</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.09069166118</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>1836.09069166118</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.369970819108</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3000.455450323291</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2742.100540919703</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2384.611126045953</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>1988.2197763463</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1576.499777514047</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1171.162507468937</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>802.6218329614803</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>1126.084015631961</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="O15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>807.6119708299257</v>
+        <v>823.0411386143169</v>
       </c>
       <c r="C16" t="n">
-        <v>635.6394077088416</v>
+        <v>651.0685754932329</v>
       </c>
       <c r="D16" t="n">
-        <v>564.3360587848197</v>
+        <v>487.7518026200036</v>
       </c>
       <c r="E16" t="n">
-        <v>398.1278529376733</v>
+        <v>321.5435967728571</v>
       </c>
       <c r="F16" t="n">
-        <v>226.2660787122337</v>
+        <v>149.6818225474175</v>
       </c>
       <c r="G16" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2193.383523106767</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2023.248475625902</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2023.248475625902</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.248475625902</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>1741.537008233931</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.684604406444</v>
+        <v>1482.113772190835</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.120707852249</v>
+        <v>1239.549875636641</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.7779395419914</v>
+        <v>1013.207107326383</v>
       </c>
     </row>
     <row r="17">
@@ -5601,7 +5603,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.6155644060643</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>741.8809303238178</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>578.5641574505885</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W19" t="n">
-        <v>1307.345429672325</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.78153311813</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1064.78153311813</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1582.26891798564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3439.049592656653</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C22" t="n">
-        <v>3439.049592656653</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D22" t="n">
-        <v>3439.049592656653</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y22" t="n">
-        <v>3439.049592656653</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.3452565994986</v>
+        <v>537.3606176598659</v>
       </c>
       <c r="C25" t="n">
-        <v>440.3726934784146</v>
+        <v>365.3880545387819</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2276.520918729638</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2033.181570955538</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1752.997122455842</v>
       </c>
       <c r="V25" t="n">
-        <v>1319.927525693246</v>
+        <v>1471.285655063871</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.075121865759</v>
+        <v>1196.433251236384</v>
       </c>
       <c r="X25" t="n">
-        <v>802.5112253115642</v>
+        <v>953.8693546821894</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.5112253115642</v>
+        <v>727.5265863719314</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>4395.762986183789</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>4395.762986183789</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3674.746986605243</v>
+        <v>681.1568861517115</v>
       </c>
       <c r="C28" t="n">
-        <v>3674.746986605243</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="D28" t="n">
-        <v>3511.430213732014</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E28" t="n">
-        <v>3345.222007884867</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F28" t="n">
-        <v>3173.360233659428</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
-        <v>3007.10326395366</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>2176.977839447384</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1896.793390947688</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>1615.081923555717</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>1340.22951972823</v>
       </c>
       <c r="X28" t="n">
-        <v>3864.912955317308</v>
+        <v>1097.665623174035</v>
       </c>
       <c r="Y28" t="n">
-        <v>3864.912955317308</v>
+        <v>871.3228548637771</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="C31" t="n">
-        <v>246.0989818976742</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D31" t="n">
-        <v>246.0989818976742</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2099.510419647316</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1819.325971147621</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1537.614503755649</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1262.762099928162</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1020.198203373968</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>793.8554350637096</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>517.8401132784822</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E34" t="n">
-        <v>201.4478291472353</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2257.000414348255</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2013.661066574155</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1733.476618074459</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1451.765150682488</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1176.912746855001</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>934.3488503008059</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>708.006081990548</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6943,13 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
         <v>4406.8563911335</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7178,10 +7180,10 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
         <v>3561.711740982687</v>
@@ -7208,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>875.4793615910692</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>703.5067984699851</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967558</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967558</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713162</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1101.822129901327</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>1101.822129901327</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>875.4793615910692</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.241461740282</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>1187.340731753582</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1187.340731753582</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1187.340731753582</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>762.2165499429824</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>357.877487532431</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>775.5174169819649</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>775.5174169819649</v>
+        <v>1352.329819853103</v>
       </c>
       <c r="M41" t="n">
-        <v>775.5174169819649</v>
+        <v>2356.615921272161</v>
       </c>
       <c r="N41" t="n">
-        <v>1432.007112328446</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O41" t="n">
-        <v>2174.619836283461</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P41" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q41" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3000.455450323291</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>3000.455450323291</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>3000.455450323291</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.966035449541</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>2246.574685749888</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>2019.578731785391</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>1614.241461740282</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>802.6218329614803</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1545.234556916495</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>805.0094625624722</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>805.0094625624722</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>641.6926896892429</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>641.6926896892429</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="F43" t="n">
-        <v>469.8309154638034</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="G43" t="n">
-        <v>303.5739457580355</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>159.7776772661899</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2193.383523106767</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2023.248475625902</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1779.909127851802</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.59173165622</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1512.59173165622</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.739327828733</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>995.1754312745379</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>995.1754312745379</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1763.549817154399</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>1336.649087167699</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>913.3564663526993</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>487.3795265005568</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>62.25534468995704</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>62.25534468995704</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>62.25534468995704</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>422.6125678233614</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1138.12087579886</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L44" t="n">
-        <v>1718.534356779277</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M44" t="n">
-        <v>1718.534356779277</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N44" t="n">
-        <v>1718.534356779277</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>1718.534356779277</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2426.813635937205</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3000.455450323291</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>3000.455450323291</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3000.455450323291</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2588.735451491038</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2183.398181445929</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>802.6218329614803</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1545.234556916495</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O45" t="n">
-        <v>1868.696739586976</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>813.6652528103269</v>
+        <v>1017.04986155608</v>
       </c>
       <c r="C46" t="n">
-        <v>641.6926896892429</v>
+        <v>845.0772984349965</v>
       </c>
       <c r="D46" t="n">
-        <v>641.6926896892429</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="E46" t="n">
-        <v>641.6926896892429</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>469.8309154638034</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>698.7173597308818</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2193.383523106767</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2023.248475625902</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>2023.248475625902</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U46" t="n">
-        <v>1743.064027126207</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V46" t="n">
-        <v>1461.352559734235</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W46" t="n">
-        <v>1230.17398983265</v>
+        <v>1485.956526420533</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.17398983265</v>
+        <v>1243.392629866338</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.831221522393</v>
+        <v>1017.04986155608</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>542.3310383704945</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8073,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>378.9827212526459</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8231,13 +8233,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>379.6111138811506</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8316,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>788.4259050134457</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>787.5451254802546</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N8" t="n">
-        <v>787.3934854152689</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>757.1971911255005</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K9" t="n">
-        <v>349.1287112782632</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>772.6289492950524</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>773.285752303045</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>305.2411872090216</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>787.3934854152689</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>287.4399897374262</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>384.2267507842765</v>
       </c>
       <c r="L12" t="n">
-        <v>772.6289492950524</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>773.2106430931508</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0725056584716</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>788.4259050134457</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M14" t="n">
-        <v>715.0730809628707</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>773.2106430931508</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0725056584716</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>773.285752303045</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9249,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>353.8126856499787</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
@@ -9969,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.6858336296069</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10589,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10598,7 +10600,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10826,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335774</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11063,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>580.4782717241521</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>700.4005272248311</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>773.2106430931508</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>771.4568907943644</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>349.9013671671521</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>624.5882858471856</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>888.5860938822785</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>773.2106430931508</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>771.4568907943644</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>349.9013671671521</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>376.9144418626953</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.78029002388575</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23482,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.4649003340602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>138.5354106440468</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>91.09328970971524</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>115.485571116967</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>38.84554974844909</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>157.3132665360053</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.18109636145721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>162.300823137631</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>59.02450224041044</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>70.70149094231978</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>136.2254319385016</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>90.77286840263298</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59.53268633643475</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9755238000614</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>169.794820953626</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>115.2040401956229</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>182.8768044190787</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>62.55316220733627</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>12.73838178107218</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.3241292173072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>43.23709558664299</v>
+        <v>41.7927251090932</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418653.9506983742</v>
+        <v>581107.6209235368</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418653.9506983741</v>
+        <v>581107.6209235368</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590131.9232943195</v>
+        <v>590131.9232943197</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>590131.9232943195</v>
+        <v>590131.9232943197</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590131.9232943195</v>
+        <v>590131.9232943197</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>590131.9232943195</v>
+        <v>590131.9232943197</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418653.9506983742</v>
+        <v>581107.6209235367</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418653.9506983742</v>
+        <v>581107.6209235367</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078142</v>
       </c>
       <c r="C2" t="n">
         <v>407709.8676078141</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
-        <v>279102.6337989162</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="F2" t="n">
-        <v>279102.633798916</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="H2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="J2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="K2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="L2" t="n">
         <v>393421.2821962132</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="N2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="O2" t="n">
-        <v>279102.6337989161</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>279102.6337989161</v>
+        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60226.823545384</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>144900.5320224917</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49070.81414520418</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>105414.0817856415</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>550.1178741868907</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>550.117874186891</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
@@ -26442,22 +26444,22 @@
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>550.1178741868907</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>550.1178741868907</v>
+        <v>786.9066424250632</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>79234.52284491403</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14351.13382335583</v>
+        <v>14351.13382335595</v>
       </c>
       <c r="C6" t="n">
-        <v>200755.867238093</v>
+        <v>200755.8672380931</v>
       </c>
       <c r="D6" t="n">
-        <v>162834.4394318746</v>
+        <v>200755.8672380933</v>
       </c>
       <c r="E6" t="n">
-        <v>232945.5930798153</v>
+        <v>103127.4082486731</v>
       </c>
       <c r="F6" t="n">
-        <v>232945.5930798151</v>
+        <v>310559.6958652339</v>
       </c>
       <c r="G6" t="n">
-        <v>169970.6277253485</v>
+        <v>307245.5376643586</v>
       </c>
       <c r="H6" t="n">
-        <v>314871.1597478404</v>
+        <v>314871.1597478402</v>
       </c>
       <c r="I6" t="n">
         <v>314871.1597478401</v>
       </c>
       <c r="J6" t="n">
-        <v>169337.4898130239</v>
+        <v>169337.4898130235</v>
       </c>
       <c r="K6" t="n">
+        <v>314871.1597478401</v>
+      </c>
+      <c r="L6" t="n">
+        <v>314871.1597478401</v>
+      </c>
+      <c r="M6" t="n">
+        <v>141740.6685422006</v>
+      </c>
+      <c r="N6" t="n">
         <v>314871.1597478403</v>
       </c>
-      <c r="L6" t="n">
-        <v>265800.3456026359</v>
-      </c>
-      <c r="M6" t="n">
-        <v>314871.1597478401</v>
-      </c>
-      <c r="N6" t="n">
-        <v>314871.1597478402</v>
-      </c>
       <c r="O6" t="n">
-        <v>232945.5930798152</v>
+        <v>310559.6958652338</v>
       </c>
       <c r="P6" t="n">
-        <v>232945.5930798152</v>
+        <v>310559.6958652338</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1138625808228</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>528.670054992034</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652286</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>528.670054992034</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>52.57331247994435</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>240.8241420779642</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27543,13 +27545,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>76.64586596708256</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.7158847368012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53.82850041004002</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>88.37640295400332</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>73.73507110287008</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>279.9424765091179</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>398.07189845979</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>112.1749600256937</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>106.2309441183568</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>357.2118800478172</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34953,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>750.1138625808228</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="N8" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>719.8062317694763</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K9" t="n">
-        <v>326.7294774449298</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>750.1138625808228</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>269.4765864142123</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>750.1138625808228</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>251.3153151328282</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="L12" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>326.7294774449299</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>750.1138625808228</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M14" t="n">
-        <v>677.6418180634389</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>750.1138625808228</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>326.7294774449299</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>750.1138625808228</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.373791196984</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37318,7 +37320,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>542.1662292915292</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>663.120904390385</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>750.1138625808228</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>750.1138625808228</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>326.7294774449299</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>586.2762434145627</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>851.3064710478325</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>750.1138625808228</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>326.7294774449299</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1861723.847148698</v>
+        <v>1861005.85703384</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760739</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6859257.633699732</v>
+        <v>6859257.63369973</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>418.88923726914</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>14.94721823158767</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.49729051610262</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -901,7 +901,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>365.2311941968097</v>
+        <v>266.4414981451792</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429392</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7074041394968</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1141,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>127.7508561305927</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760402</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>133.9073134702961</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>214.0679051944713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>133.7658337647892</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>147.7496808666468</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1773,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="G16" t="n">
-        <v>49.10882889174314</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1861,10 +1861,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>11.18785490339405</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>4.37033860849166</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.750738971137586</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>6.13287386842549</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>106.6222295383794</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>104.6805223578574</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>181.3732679599242</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>157.7072530887543</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>25.45817320599514</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3477,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>128.9682964768043</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.28451967352942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.594400008706</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>42.8768251322882</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.8998395935892</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89949249262175</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>102.0412378013739</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>261.2677548652218</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>292.3236405495131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>396.6354872933167</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4155,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4197,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>230.3111546801189</v>
+        <v>260.872123190591</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.947823099961</v>
+        <v>533.7979646336248</v>
       </c>
       <c r="C2" t="n">
-        <v>1354.087497153665</v>
+        <v>510.937638687329</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7948763386657</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2209.81305222845</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.81305222845</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X2" t="n">
-        <v>1798.093053396197</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.755783351087</v>
+        <v>953.6463289251549</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233694</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>1210.100240615159</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>1210.100240615159</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M3" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N3" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.7617390986079</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>548.7617390986079</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>548.7617390986079</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7617390986079</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4521,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>965.2704761209314</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>738.9277078106735</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.678729207029</v>
+        <v>783.8507533973008</v>
       </c>
       <c r="C5" t="n">
-        <v>1264.818403260733</v>
+        <v>760.990427451005</v>
       </c>
       <c r="D5" t="n">
-        <v>895.8980050821372</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924753</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X5" t="n">
-        <v>1708.823959503264</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1303.486689458155</v>
+        <v>799.6587136484268</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2078.856605666331</v>
+        <v>1066.753158251662</v>
       </c>
       <c r="C8" t="n">
-        <v>1651.955875679631</v>
+        <v>639.8524282649619</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.663254864631</v>
+        <v>216.5598074499621</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>194.6232716382237</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>173.539493868028</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>1486.601522543192</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.3900115791711</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X10" t="n">
-        <v>792.3900115791711</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y10" t="n">
-        <v>792.3900115791711</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="11">
@@ -5050,40 +5050,40 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2107.813759290661</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>3084.064817777362</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>3929.209467928174</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4637.488747086102</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
         <v>2958.324093828008</v>
@@ -5123,22 +5123,22 @@
         <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>737.4303189019267</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>737.4303189019267</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>737.4303189019267</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>1826.745265374797</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1826.745265374797</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
         <v>1826.745265374797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>980.1943022378139</v>
+        <v>920.1727262702736</v>
       </c>
       <c r="C13" t="n">
-        <v>980.1943022378139</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="D13" t="n">
-        <v>816.8775293645846</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.451358979291</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2233.451358979291</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1953.266910479596</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1671.555443087625</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.703039260138</v>
+        <v>1311.97872470997</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.703039260138</v>
+        <v>1069.414828155775</v>
       </c>
       <c r="Y13" t="n">
-        <v>1170.36027094988</v>
+        <v>920.1727262702736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
         <v>134.9738161355189</v>
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5320,10 +5320,10 @@
         <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.063482855035</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1156.063482855035</v>
+        <v>221.066270324827</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>823.0411386143169</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C16" t="n">
-        <v>651.0685754932329</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D16" t="n">
-        <v>487.7518026200036</v>
+        <v>206.0403352280324</v>
       </c>
       <c r="E16" t="n">
-        <v>321.5435967728571</v>
+        <v>206.0403352280324</v>
       </c>
       <c r="F16" t="n">
-        <v>149.6818225474175</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
         <v>100.0769448789901</v>
@@ -5472,16 +5472,16 @@
         <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>1756.966176018322</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1482.113772190835</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X16" t="n">
-        <v>1239.549875636641</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y16" t="n">
-        <v>1013.207107326383</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
         <v>5115.135670291427</v>
@@ -5591,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.7597400424195</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>444.7871769213355</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
         <v>274.1644876312681</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.268477064743</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.9257087544852</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>537.3606176598659</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>365.3880545387819</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D25" t="n">
-        <v>202.0712816655526</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="E25" t="n">
-        <v>202.0712816655526</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>208.8902099192269</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>208.8902099192269</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2276.520918729638</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2033.181570955538</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.997122455842</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1471.285655063871</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1196.433251236384</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>953.8693546821894</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.5265863719314</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>4395.762986183789</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>4395.762986183789</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>4650.990193428648</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>681.1568861517115</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C28" t="n">
-        <v>509.1843230306275</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D28" t="n">
-        <v>345.8675501573982</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E28" t="n">
-        <v>345.8675501573982</v>
+        <v>481.632277646931</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>309.7705034214914</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>309.7705034214914</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2176.977839447384</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.793390947688</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>1615.081923555717</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>1340.22951972823</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X28" t="n">
-        <v>1097.665623174035</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y28" t="n">
-        <v>871.3228548637771</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1756.220820912125</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.6894663516439</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
         <v>274.1644876312681</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2099.510419647316</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.325971147621</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.614503755649</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.762099928162</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.198203373968</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.8554350637096</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.8401132784822</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>345.8675501573982</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>345.8675501573982</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>345.8675501573982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2257.000414348255</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>2013.661066574155</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>1733.476618074459</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>1451.765150682488</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>1176.912746855001</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>934.3488503008059</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.006081990548</v>
+        <v>929.2466917026181</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.167063056836</v>
+        <v>855.9588572096898</v>
       </c>
       <c r="C37" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E37" t="n">
         <v>683.9862940886057</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1935.271073483038</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1655.086624983343</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1373.375157591372</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.165879923982</v>
+        <v>1098.522753763885</v>
       </c>
       <c r="X37" t="n">
-        <v>1267.165879923982</v>
+        <v>855.9588572096898</v>
       </c>
       <c r="Y37" t="n">
-        <v>1212.333031768902</v>
+        <v>855.9588572096898</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7219,7 +7219,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>4225.654392279956</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>4225.654392279956</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>875.4793615910692</v>
+        <v>1185.483835930062</v>
       </c>
       <c r="C40" t="n">
-        <v>703.5067984699851</v>
+        <v>1013.511272808979</v>
       </c>
       <c r="D40" t="n">
-        <v>540.1900255967558</v>
+        <v>850.1944999357493</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967558</v>
+        <v>683.9862940886028</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713162</v>
+        <v>512.1245198631632</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573954</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655498</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2022.232155649216</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1742.047707149521</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1460.336239757549</v>
       </c>
       <c r="W40" t="n">
-        <v>1101.822129901327</v>
+        <v>1185.483835930062</v>
       </c>
       <c r="X40" t="n">
-        <v>1101.822129901327</v>
+        <v>1185.483835930062</v>
       </c>
       <c r="Y40" t="n">
-        <v>875.4793615910692</v>
+        <v>1185.483835930062</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.578858279949</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2076.678128293249</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.385507478249</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1227.408567626107</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>802.2843858155067</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1352.329819853103</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2356.615921272161</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3332.866979758862</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>4178.011629909674</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>4886.290909067602</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2923.427222571479</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M42" t="n">
         <v>819.4496289866299</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.3296712223457</v>
+        <v>767.8314564262178</v>
       </c>
       <c r="C43" t="n">
-        <v>369.3571081012617</v>
+        <v>595.8588933051337</v>
       </c>
       <c r="D43" t="n">
-        <v>369.3571081012617</v>
+        <v>432.5421204319044</v>
       </c>
       <c r="E43" t="n">
-        <v>203.1489022541153</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F43" t="n">
-        <v>203.1489022541153</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292118</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518018</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.966176018322</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.254708626351</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1200.402304798864</v>
+        <v>994.1742247364757</v>
       </c>
       <c r="X43" t="n">
-        <v>957.8384082446693</v>
+        <v>994.1742247364757</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.4956399344113</v>
+        <v>767.8314564262178</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
         <v>432.8421946614841</v>
@@ -7648,52 +7648,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.988093917325</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>100.0769448789901</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.39189135186</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.566858421002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.04986155608</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="C46" t="n">
-        <v>845.0772984349965</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="D46" t="n">
-        <v>681.7605255617672</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>2280.489972292118</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>2000.305523792422</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.594056400451</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>1485.956526420533</v>
+        <v>1164.708900171513</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.392629866338</v>
+        <v>1164.708900171513</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.04986155608</v>
+        <v>938.3661318612553</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>571.0335849150666</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>542.3310383704945</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8078,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,13 +8455,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>110.4928214404737</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931265</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4399897374262</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>384.2267507842765</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>136.0326064801326</v>
       </c>
       <c r="O15" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>742.2891030007354</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9412,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>717.3655137896245</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9652,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
-        <v>279.5761010481211</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,7 +10202,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>177.6758798036561</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10436,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10673,7 +10673,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685286</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,7 +10834,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>855.4509062314407</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335774</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>580.4782717241521</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>107.1869721826501</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,7 +11147,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N42" t="n">
         <v>1121.661155963915</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,19 +11308,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>888.5860938822785</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.64841005134187</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>30.78029002388575</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>76.32965976050858</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.2394000376333</v>
       </c>
       <c r="G16" t="n">
-        <v>115.485571116967</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>150.4957502411029</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.3132665360053</v>
+        <v>91.97701519844304</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>135.6075668357896</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>162.300823137631</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.73607626854772</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>136.2254319385016</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>59.53268633643475</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>30.55705593619072</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9755238000614</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>111.9376578195547</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.794820953626</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>198.0291291640708</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.2040401956229</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.42412869296925</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>62.55316220733627</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>10.83612492399033</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.648410051341898</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.7927251090932</v>
+        <v>11.23175659862108</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581107.6209235368</v>
+        <v>581107.6209235367</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581107.6209235368</v>
+        <v>581107.6209235367</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590131.9232943197</v>
+        <v>590131.9232943195</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>590131.9232943197</v>
+        <v>590131.9232943195</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>590131.9232943197</v>
+        <v>590131.9232943195</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590131.9232943197</v>
+        <v>590131.9232943195</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>590131.9232943195</v>
+        <v>590131.9232943197</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590131.9232943195</v>
+        <v>590131.9232943194</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>590131.9232943197</v>
+        <v>590131.9232943195</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581107.6209235367</v>
+        <v>581107.6209235366</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
-        <v>387405.0806156915</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
         <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="H2" t="n">
+        <v>393421.2821962134</v>
+      </c>
+      <c r="I2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="I2" t="n">
-        <v>393421.2821962131</v>
-      </c>
       <c r="J2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="K2" t="n">
         <v>393421.2821962131</v>
       </c>
       <c r="L2" t="n">
+        <v>393421.2821962135</v>
+      </c>
+      <c r="M2" t="n">
+        <v>393421.2821962134</v>
+      </c>
+      <c r="N2" t="n">
         <v>393421.2821962132</v>
       </c>
-      <c r="M2" t="n">
-        <v>393421.2821962133</v>
-      </c>
-      <c r="N2" t="n">
-        <v>393421.2821962133</v>
-      </c>
       <c r="O2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="P2" t="n">
         <v>387405.0806156913</v>
@@ -26429,37 +26429,37 @@
         <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
         <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>786.9066424250632</v>
+        <v>786.906642425063</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14351.13382335595</v>
+        <v>14351.13382335589</v>
       </c>
       <c r="C6" t="n">
-        <v>200755.8672380931</v>
+        <v>200755.867238093</v>
       </c>
       <c r="D6" t="n">
-        <v>200755.8672380933</v>
+        <v>200755.8672380932</v>
       </c>
       <c r="E6" t="n">
-        <v>103127.4082486731</v>
+        <v>103054.8911522726</v>
       </c>
       <c r="F6" t="n">
-        <v>310559.6958652339</v>
+        <v>310487.1787688335</v>
       </c>
       <c r="G6" t="n">
-        <v>307245.5376643586</v>
+        <v>307194.5070021746</v>
       </c>
       <c r="H6" t="n">
-        <v>314871.1597478402</v>
+        <v>314820.129085656</v>
       </c>
       <c r="I6" t="n">
-        <v>314871.1597478401</v>
+        <v>314820.1290856559</v>
       </c>
       <c r="J6" t="n">
-        <v>169337.4898130235</v>
+        <v>169286.4591508395</v>
       </c>
       <c r="K6" t="n">
-        <v>314871.1597478401</v>
+        <v>314820.1290856558</v>
       </c>
       <c r="L6" t="n">
-        <v>314871.1597478401</v>
+        <v>314820.1290856561</v>
       </c>
       <c r="M6" t="n">
-        <v>141740.6685422006</v>
+        <v>141689.6378800165</v>
       </c>
       <c r="N6" t="n">
-        <v>314871.1597478403</v>
+        <v>314820.1290856558</v>
       </c>
       <c r="O6" t="n">
-        <v>310559.6958652338</v>
+        <v>310487.1787688336</v>
       </c>
       <c r="P6" t="n">
-        <v>310559.6958652338</v>
+        <v>310487.1787688333</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1704573377096494</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>240.8241420779642</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>76.64586596708256</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>53.82850041004002</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.9424765091179</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>272.5448156558531</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27918,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>106.2309441183568</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30401,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>519.9318045371612</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>158.2737632597931</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3153151328282</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>361.8275169509432</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>114.689578266591</v>
       </c>
       <c r="O15" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36132,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36372,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
-        <v>257.8052598432924</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>156.3328515901145</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562006</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,7 +37554,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>818.1712833969947</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212494</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>542.1662292915292</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N42" t="n">
         <v>1100.318127750374</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,19 +38028,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>851.3064710478325</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
